--- a/datos/pma_completo.xlsx
+++ b/datos/pma_completo.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="600" windowWidth="5415" windowHeight="5580"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mirYRFo01G6nVOc64h9FUIlHjGZ2g=="/>
@@ -16,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="188">
   <si>
     <t>Area funcional</t>
   </si>
@@ -577,26 +580,44 @@
   </si>
   <si>
     <t>PMA_36</t>
+  </si>
+  <si>
+    <t>heridos_hosp/pma_individual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -604,11 +625,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -622,33 +649,39 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -838,28 +871,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="7.63"/>
-    <col customWidth="1" min="3" max="3" width="24.0"/>
-    <col customWidth="1" min="4" max="13" width="7.63"/>
-    <col customWidth="1" min="14" max="14" width="12.38"/>
-    <col customWidth="1" min="15" max="15" width="20.63"/>
-    <col customWidth="1" min="16" max="26" width="7.63"/>
+    <col min="1" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="14" width="7.625" customWidth="1"/>
+    <col min="15" max="15" width="12.375" customWidth="1"/>
+    <col min="16" max="16" width="20.625" customWidth="1"/>
+    <col min="17" max="27" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,19 +933,22 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -917,10 +957,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="2">
-        <v>7314.0</v>
+        <v>7314</v>
       </c>
       <c r="E2" s="2">
-        <v>7314.0</v>
+        <v>7314</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
@@ -929,10 +969,10 @@
         <v>18</v>
       </c>
       <c r="H2" s="2">
-        <v>-77.1419038</v>
+        <v>-77.141903799999994</v>
       </c>
       <c r="I2" s="2">
-        <v>-11.83265968</v>
+        <v>-11.832659680000001</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>19</v>
@@ -944,21 +984,24 @@
         <v>15</v>
       </c>
       <c r="M2" s="2">
-        <v>2438.0</v>
+        <v>2438</v>
       </c>
       <c r="N2" s="2">
-        <v>158.0</v>
-      </c>
-      <c r="O2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O2" s="2">
+        <v>158</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -967,10 +1010,10 @@
         <v>22</v>
       </c>
       <c r="D3" s="2">
-        <v>5814.0</v>
+        <v>5814</v>
       </c>
       <c r="E3" s="2">
-        <v>5814.0</v>
+        <v>5814</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>23</v>
@@ -979,7 +1022,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="2">
-        <v>-77.1727247</v>
+        <v>-77.172724700000003</v>
       </c>
       <c r="I3" s="2">
         <v>-11.7747191</v>
@@ -994,21 +1037,24 @@
         <v>15</v>
       </c>
       <c r="M3" s="2">
-        <v>2438.0</v>
+        <v>2438</v>
       </c>
       <c r="N3" s="2">
-        <v>158.0</v>
-      </c>
-      <c r="O3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O3" s="2">
+        <v>158</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -1017,10 +1063,10 @@
         <v>27</v>
       </c>
       <c r="D4" s="2">
-        <v>6256.0</v>
+        <v>6256</v>
       </c>
       <c r="E4" s="2">
-        <v>6256.0</v>
+        <v>6256</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>28</v>
@@ -1029,7 +1075,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="2">
-        <v>-77.12271214</v>
+        <v>-77.122712140000004</v>
       </c>
       <c r="I4" s="2">
         <v>-11.82855773</v>
@@ -1044,21 +1090,24 @@
         <v>15</v>
       </c>
       <c r="M4" s="2">
-        <v>2438.0</v>
+        <v>2438</v>
       </c>
       <c r="N4" s="2">
-        <v>158.0</v>
-      </c>
-      <c r="O4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" s="2">
+        <v>158</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -1067,10 +1116,10 @@
         <v>31</v>
       </c>
       <c r="D5" s="2">
-        <v>5816.0</v>
+        <v>5816</v>
       </c>
       <c r="E5" s="2">
-        <v>5816.0</v>
+        <v>5816</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>32</v>
@@ -1079,7 +1128,7 @@
         <v>33</v>
       </c>
       <c r="H5" s="2">
-        <v>-77.1090997</v>
+        <v>-77.109099700000002</v>
       </c>
       <c r="I5" s="2">
         <v>-11.8376114</v>
@@ -1094,21 +1143,24 @@
         <v>15</v>
       </c>
       <c r="M5" s="2">
-        <v>2438.0</v>
+        <v>2438</v>
       </c>
       <c r="N5" s="2">
-        <v>158.0</v>
-      </c>
-      <c r="O5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O5" s="2">
+        <v>158</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -1117,13 +1169,13 @@
         <v>36</v>
       </c>
       <c r="D6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>-77.08384000000001</v>
+        <v>-77.083840000000009</v>
       </c>
       <c r="I6" s="2">
-        <v>-11.8745632</v>
+        <v>-11.874563200000001</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>34</v>
@@ -1132,21 +1184,24 @@
         <v>15</v>
       </c>
       <c r="M6" s="2">
-        <v>2438.0</v>
+        <v>2438</v>
       </c>
       <c r="N6" s="2">
-        <v>158.0</v>
-      </c>
-      <c r="O6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O6" s="2">
+        <v>158</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -1155,10 +1210,10 @@
         <v>38</v>
       </c>
       <c r="D7" s="2">
-        <v>5821.0</v>
+        <v>5821</v>
       </c>
       <c r="E7" s="2">
-        <v>5821.0</v>
+        <v>5821</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>39</v>
@@ -1167,10 +1222,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="2">
-        <v>-77.06970140000001</v>
+        <v>-77.069701400000014</v>
       </c>
       <c r="I7" s="2">
-        <v>-11.8875316</v>
+        <v>-11.887531600000001</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>19</v>
@@ -1182,21 +1237,24 @@
         <v>15</v>
       </c>
       <c r="M7" s="2">
-        <v>2438.0</v>
+        <v>2438</v>
       </c>
       <c r="N7" s="2">
-        <v>158.0</v>
-      </c>
-      <c r="O7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" s="2">
+        <v>158</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>42</v>
@@ -1205,10 +1263,10 @@
         <v>43</v>
       </c>
       <c r="D8" s="2">
-        <v>5735.0</v>
+        <v>5735</v>
       </c>
       <c r="E8" s="2">
-        <v>5735.0</v>
+        <v>5735</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>44</v>
@@ -1217,10 +1275,10 @@
         <v>45</v>
       </c>
       <c r="H8" s="2">
-        <v>-77.0167279</v>
+        <v>-77.016727900000006</v>
       </c>
       <c r="I8" s="2">
-        <v>-11.87554</v>
+        <v>-11.875540000000001</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>19</v>
@@ -1232,33 +1290,34 @@
         <v>42</v>
       </c>
       <c r="M8" s="2">
-        <v>50335.0</v>
+        <v>50335</v>
       </c>
       <c r="N8" s="2">
-        <v>3256.0</v>
-      </c>
-      <c r="O8" s="2" t="s">
+        <v>3256</v>
+      </c>
+      <c r="O8" s="2">
+        <v>3256</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="2">
-        <v>15075.0</v>
+        <v>15075</v>
       </c>
       <c r="E9" s="2">
-        <v>15075.0</v>
+        <v>15075</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>49</v>
@@ -1267,7 +1326,7 @@
         <v>50</v>
       </c>
       <c r="H9" s="2">
-        <v>-76.8624313</v>
+        <v>-76.862431299999997</v>
       </c>
       <c r="I9" s="2">
         <v>-12.1096968</v>
@@ -1282,21 +1341,24 @@
         <v>42</v>
       </c>
       <c r="M9" s="2">
-        <v>50335.0</v>
+        <v>50335</v>
       </c>
       <c r="N9" s="2">
-        <v>3256.0</v>
-      </c>
-      <c r="O9" s="2" t="s">
+        <v>3256</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>54</v>
@@ -1305,10 +1367,10 @@
         <v>48</v>
       </c>
       <c r="D10" s="2">
-        <v>15075.0</v>
+        <v>15075</v>
       </c>
       <c r="E10" s="2">
-        <v>15075.0</v>
+        <v>15075</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>49</v>
@@ -1317,7 +1379,7 @@
         <v>50</v>
       </c>
       <c r="H10" s="2">
-        <v>-76.8624313</v>
+        <v>-76.862431299999997</v>
       </c>
       <c r="I10" s="2">
         <v>-12.1096968</v>
@@ -1332,21 +1394,25 @@
         <v>54</v>
       </c>
       <c r="M10" s="2">
-        <v>31218.0</v>
+        <v>31218</v>
       </c>
       <c r="N10" s="2">
-        <v>2019.0</v>
-      </c>
-      <c r="O10" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="O10" s="2">
+        <f>N10+N9</f>
+        <v>5275</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>54</v>
@@ -1355,10 +1421,10 @@
         <v>55</v>
       </c>
       <c r="D11" s="2">
-        <v>5742.0</v>
+        <v>5742</v>
       </c>
       <c r="E11" s="2">
-        <v>5742.0</v>
+        <v>5742</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>56</v>
@@ -1367,10 +1433,10 @@
         <v>57</v>
       </c>
       <c r="H11" s="2">
-        <v>-77.0850499</v>
+        <v>-77.085049900000001</v>
       </c>
       <c r="I11" s="2">
-        <v>-12.0252261</v>
+        <v>-12.025226099999999</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>51</v>
@@ -1382,21 +1448,24 @@
         <v>54</v>
       </c>
       <c r="M11" s="2">
-        <v>31218.0</v>
+        <v>31218</v>
       </c>
       <c r="N11" s="2">
-        <v>2019.0</v>
-      </c>
-      <c r="O11" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="O11" s="2">
+        <v>2019</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>54</v>
@@ -1405,10 +1474,10 @@
         <v>60</v>
       </c>
       <c r="D12" s="2">
-        <v>5644.0</v>
+        <v>5644</v>
       </c>
       <c r="E12" s="2">
-        <v>5644.0</v>
+        <v>5644</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>61</v>
@@ -1420,7 +1489,7 @@
         <v>-77.03366059999999</v>
       </c>
       <c r="I12" s="2">
-        <v>-12.0343399</v>
+        <v>-12.034339900000001</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>19</v>
@@ -1432,21 +1501,24 @@
         <v>54</v>
       </c>
       <c r="M12" s="2">
-        <v>31218.0</v>
+        <v>31218</v>
       </c>
       <c r="N12" s="2">
-        <v>2019.0</v>
-      </c>
-      <c r="O12" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2019</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>54</v>
@@ -1455,10 +1527,10 @@
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <v>5735.0</v>
+        <v>5735</v>
       </c>
       <c r="E13" s="2">
-        <v>5735.0</v>
+        <v>5735</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>44</v>
@@ -1467,10 +1539,10 @@
         <v>45</v>
       </c>
       <c r="H13" s="2">
-        <v>-77.0167279</v>
+        <v>-77.016727900000006</v>
       </c>
       <c r="I13" s="2">
-        <v>-11.87554</v>
+        <v>-11.875540000000001</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>19</v>
@@ -1482,21 +1554,24 @@
         <v>54</v>
       </c>
       <c r="M13" s="2">
-        <v>31218.0</v>
+        <v>31218</v>
       </c>
       <c r="N13" s="2">
-        <v>2019.0</v>
-      </c>
-      <c r="O13" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2019</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>54</v>
@@ -1505,10 +1580,10 @@
         <v>67</v>
       </c>
       <c r="D14" s="2">
-        <v>5755.0</v>
+        <v>5755</v>
       </c>
       <c r="E14" s="2">
-        <v>5755.0</v>
+        <v>5755</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>68</v>
@@ -1517,7 +1592,7 @@
         <v>69</v>
       </c>
       <c r="H14" s="2">
-        <v>-77.0553621</v>
+        <v>-77.055362099999996</v>
       </c>
       <c r="I14" s="2">
         <v>-11.9160503</v>
@@ -1532,21 +1607,24 @@
         <v>54</v>
       </c>
       <c r="M14" s="2">
-        <v>31218.0</v>
+        <v>31218</v>
       </c>
       <c r="N14" s="2">
-        <v>2019.0</v>
-      </c>
-      <c r="O14" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2019</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>54</v>
@@ -1555,10 +1633,10 @@
         <v>72</v>
       </c>
       <c r="D15" s="2">
-        <v>5772.0</v>
+        <v>5772</v>
       </c>
       <c r="E15" s="2">
-        <v>5772.0</v>
+        <v>5772</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>73</v>
@@ -1567,7 +1645,7 @@
         <v>74</v>
       </c>
       <c r="H15" s="2">
-        <v>-77.05898579</v>
+        <v>-77.058985789999994</v>
       </c>
       <c r="I15" s="2">
         <v>-11.94712492</v>
@@ -1582,21 +1660,24 @@
         <v>54</v>
       </c>
       <c r="M15" s="2">
-        <v>31218.0</v>
+        <v>31218</v>
       </c>
       <c r="N15" s="2">
-        <v>2019.0</v>
-      </c>
-      <c r="O15" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2019</v>
+      </c>
+      <c r="P15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>54</v>
@@ -1605,10 +1686,10 @@
         <v>76</v>
       </c>
       <c r="D16" s="2">
-        <v>5791.0</v>
+        <v>5791</v>
       </c>
       <c r="E16" s="2">
-        <v>5791.0</v>
+        <v>5791</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>77</v>
@@ -1617,7 +1698,7 @@
         <v>78</v>
       </c>
       <c r="H16" s="2">
-        <v>-77.0529828</v>
+        <v>-77.052982799999995</v>
       </c>
       <c r="I16" s="2">
         <v>-11.9784658</v>
@@ -1632,21 +1713,24 @@
         <v>54</v>
       </c>
       <c r="M16" s="2">
-        <v>31218.0</v>
+        <v>31218</v>
       </c>
       <c r="N16" s="2">
-        <v>2019.0</v>
-      </c>
-      <c r="O16" s="2" t="s">
+        <v>2019</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2019</v>
+      </c>
+      <c r="P16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>81</v>
@@ -1655,10 +1739,10 @@
         <v>82</v>
       </c>
       <c r="D17" s="2">
-        <v>5842.0</v>
+        <v>5842</v>
       </c>
       <c r="E17" s="2">
-        <v>5842.0</v>
+        <v>5842</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>83</v>
@@ -1667,10 +1751,10 @@
         <v>84</v>
       </c>
       <c r="H17" s="2">
-        <v>-77.0129107</v>
+        <v>-77.012910700000006</v>
       </c>
       <c r="I17" s="2">
-        <v>-12.0325307</v>
+        <v>-12.032530700000001</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>19</v>
@@ -1682,21 +1766,24 @@
         <v>81</v>
       </c>
       <c r="M17" s="2">
-        <v>154161.0</v>
+        <v>154161</v>
       </c>
       <c r="N17" s="2">
-        <v>9971.0</v>
-      </c>
-      <c r="O17" s="2" t="s">
+        <v>9971</v>
+      </c>
+      <c r="O17" s="2">
+        <v>9971</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>86</v>
@@ -1705,13 +1792,13 @@
         <v>87</v>
       </c>
       <c r="D18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>-77.10873649999999</v>
+        <v>-77.108736499999992</v>
       </c>
       <c r="I18" s="2">
-        <v>-12.0617569</v>
+        <v>-12.061756900000001</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>88</v>
@@ -1720,21 +1807,24 @@
         <v>86</v>
       </c>
       <c r="M18" s="2">
-        <v>70553.0</v>
+        <v>70553</v>
       </c>
       <c r="N18" s="2">
-        <v>4563.0</v>
-      </c>
-      <c r="O18" s="2" t="s">
+        <v>4563</v>
+      </c>
+      <c r="O18" s="2">
+        <v>4563</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>90</v>
@@ -1743,10 +1833,10 @@
         <v>91</v>
       </c>
       <c r="D19" s="2">
-        <v>6196.0</v>
+        <v>6196</v>
       </c>
       <c r="E19" s="2">
-        <v>6196.0</v>
+        <v>6196</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>92</v>
@@ -1770,21 +1860,24 @@
         <v>90</v>
       </c>
       <c r="M19" s="2">
-        <v>8440.0</v>
+        <v>8440</v>
       </c>
       <c r="N19" s="2">
-        <v>546.0</v>
-      </c>
-      <c r="O19" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="O19" s="2">
+        <v>546</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>90</v>
@@ -1793,10 +1886,10 @@
         <v>96</v>
       </c>
       <c r="D20" s="2">
-        <v>8539.0</v>
+        <v>8539</v>
       </c>
       <c r="E20" s="2">
-        <v>8539.0</v>
+        <v>8539</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>97</v>
@@ -1805,7 +1898,7 @@
         <v>98</v>
       </c>
       <c r="H20" s="2">
-        <v>-77.03923833</v>
+        <v>-77.039238330000003</v>
       </c>
       <c r="I20" s="2">
         <v>-12.06264167</v>
@@ -1820,21 +1913,24 @@
         <v>90</v>
       </c>
       <c r="M20" s="2">
-        <v>8440.0</v>
+        <v>8440</v>
       </c>
       <c r="N20" s="2">
-        <v>546.0</v>
-      </c>
-      <c r="O20" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="O20" s="2">
+        <v>546</v>
+      </c>
+      <c r="P20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="Q20" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>101</v>
@@ -1843,10 +1939,10 @@
         <v>102</v>
       </c>
       <c r="D21" s="2">
-        <v>5966.0</v>
+        <v>5966</v>
       </c>
       <c r="E21" s="2">
-        <v>5966.0</v>
+        <v>5966</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>103</v>
@@ -1855,7 +1951,7 @@
         <v>104</v>
       </c>
       <c r="H21" s="2">
-        <v>-76.99640759999998</v>
+        <v>-76.996407599999984</v>
       </c>
       <c r="I21" s="2">
         <v>-12.0600611</v>
@@ -1870,33 +1966,34 @@
         <v>101</v>
       </c>
       <c r="M21" s="2">
-        <v>20207.0</v>
+        <v>20207</v>
       </c>
       <c r="N21" s="2">
-        <v>1307.0</v>
-      </c>
-      <c r="O21" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1307</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D22" s="2">
-        <v>6175.0</v>
+        <v>6175</v>
       </c>
       <c r="E22" s="2">
-        <v>6175.0</v>
+        <v>6175</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>108</v>
@@ -1908,7 +2005,7 @@
         <v>-77.0209069</v>
       </c>
       <c r="I22" s="2">
-        <v>-12.0676604</v>
+        <v>-12.067660399999999</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>19</v>
@@ -1920,21 +2017,24 @@
         <v>101</v>
       </c>
       <c r="M22" s="2">
-        <v>20207.0</v>
+        <v>20207</v>
       </c>
       <c r="N22" s="2">
-        <v>1307.0</v>
-      </c>
-      <c r="O22" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>112</v>
@@ -1943,10 +2043,10 @@
         <v>113</v>
       </c>
       <c r="D23" s="2">
-        <v>5998.0</v>
+        <v>5998</v>
       </c>
       <c r="E23" s="2">
-        <v>5998.0</v>
+        <v>5998</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>114</v>
@@ -1955,7 +2055,7 @@
         <v>115</v>
       </c>
       <c r="H23" s="2">
-        <v>-77.0048744</v>
+        <v>-77.004874400000006</v>
       </c>
       <c r="I23" s="2">
         <v>-12.1887664</v>
@@ -1970,21 +2070,24 @@
         <v>112</v>
       </c>
       <c r="M23" s="2">
-        <v>20777.0</v>
+        <v>20777</v>
       </c>
       <c r="N23" s="2">
-        <v>1344.0</v>
-      </c>
-      <c r="O23" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="O23" s="2">
+        <v>1344</v>
+      </c>
+      <c r="P23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>112</v>
@@ -1993,10 +2096,10 @@
         <v>107</v>
       </c>
       <c r="D24" s="2">
-        <v>6175.0</v>
+        <v>6175</v>
       </c>
       <c r="E24" s="2">
-        <v>6175.0</v>
+        <v>6175</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>108</v>
@@ -2008,7 +2111,7 @@
         <v>-77.0209069</v>
       </c>
       <c r="I24" s="2">
-        <v>-12.0676604</v>
+        <v>-12.067660399999999</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>19</v>
@@ -2020,21 +2123,25 @@
         <v>112</v>
       </c>
       <c r="M24" s="2">
-        <v>20777.0</v>
+        <v>20777</v>
       </c>
       <c r="N24" s="2">
-        <v>1344.0</v>
-      </c>
-      <c r="O24" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="O24" s="2">
+        <f>N24+N22</f>
+        <v>2651</v>
+      </c>
+      <c r="P24" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>112</v>
@@ -2043,10 +2150,10 @@
         <v>118</v>
       </c>
       <c r="D25" s="2">
-        <v>8438.0</v>
+        <v>8438</v>
       </c>
       <c r="E25" s="2">
-        <v>8438.0</v>
+        <v>8438</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>119</v>
@@ -2055,7 +2162,7 @@
         <v>120</v>
       </c>
       <c r="H25" s="2">
-        <v>-77.00464129999999</v>
+        <v>-77.004641299999989</v>
       </c>
       <c r="I25" s="2">
         <v>-12.1783831</v>
@@ -2070,21 +2177,24 @@
         <v>112</v>
       </c>
       <c r="M25" s="2">
-        <v>20777.0</v>
+        <v>20777</v>
       </c>
       <c r="N25" s="2">
-        <v>1344.0</v>
-      </c>
-      <c r="O25" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="O25" s="2">
+        <v>1344</v>
+      </c>
+      <c r="P25" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>122</v>
@@ -2093,10 +2203,10 @@
         <v>123</v>
       </c>
       <c r="D26" s="2">
-        <v>5938.0</v>
+        <v>5938</v>
       </c>
       <c r="E26" s="2">
-        <v>5938.0</v>
+        <v>5938</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>124</v>
@@ -2105,7 +2215,7 @@
         <v>125</v>
       </c>
       <c r="H26" s="2">
-        <v>-76.81363809999999</v>
+        <v>-76.813638099999991</v>
       </c>
       <c r="I26" s="2">
         <v>-11.9870514</v>
@@ -2120,21 +2230,24 @@
         <v>122</v>
       </c>
       <c r="M26" s="2">
-        <v>14836.0</v>
+        <v>14836</v>
       </c>
       <c r="N26" s="2">
-        <v>960.0</v>
-      </c>
-      <c r="O26" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="O26" s="2">
+        <v>960</v>
+      </c>
+      <c r="P26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>122</v>
@@ -2143,10 +2256,10 @@
         <v>128</v>
       </c>
       <c r="D27" s="2">
-        <v>6119.0</v>
+        <v>6119</v>
       </c>
       <c r="E27" s="2">
-        <v>6119.0</v>
+        <v>6119</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>129</v>
@@ -2155,7 +2268,7 @@
         <v>130</v>
       </c>
       <c r="H27" s="2">
-        <v>-76.961124</v>
+        <v>-76.961123999999998</v>
       </c>
       <c r="I27" s="2">
         <v>-12.1843422</v>
@@ -2170,21 +2283,24 @@
         <v>122</v>
       </c>
       <c r="M27" s="2">
-        <v>14836.0</v>
+        <v>14836</v>
       </c>
       <c r="N27" s="2">
-        <v>960.0</v>
-      </c>
-      <c r="O27" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="O27" s="2">
+        <v>960</v>
+      </c>
+      <c r="P27" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>122</v>
@@ -2193,13 +2309,13 @@
         <v>134</v>
       </c>
       <c r="D28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2">
-        <v>-76.9691907</v>
+        <v>-76.969190699999999</v>
       </c>
       <c r="I28" s="2">
-        <v>-12.0413171</v>
+        <v>-12.041317100000001</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>135</v>
@@ -2208,21 +2324,24 @@
         <v>122</v>
       </c>
       <c r="M28" s="2">
-        <v>14836.0</v>
+        <v>14836</v>
       </c>
       <c r="N28" s="2">
-        <v>960.0</v>
-      </c>
-      <c r="O28" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="O28" s="2">
+        <v>960</v>
+      </c>
+      <c r="P28" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="Q28" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>137</v>
@@ -2231,10 +2350,10 @@
         <v>138</v>
       </c>
       <c r="D29" s="2">
-        <v>6104.0</v>
+        <v>6104</v>
       </c>
       <c r="E29" s="2">
-        <v>6104.0</v>
+        <v>6104</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>139</v>
@@ -2243,10 +2362,10 @@
         <v>140</v>
       </c>
       <c r="H29" s="2">
-        <v>-76.96844250000001</v>
+        <v>-76.968442500000009</v>
       </c>
       <c r="I29" s="2">
-        <v>-12.1522561</v>
+        <v>-12.152256100000001</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>19</v>
@@ -2258,21 +2377,24 @@
         <v>137</v>
       </c>
       <c r="M29" s="2">
-        <v>5836.0</v>
+        <v>5836</v>
       </c>
       <c r="N29" s="2">
-        <v>377.0</v>
-      </c>
-      <c r="O29" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O29" s="2">
+        <v>377</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>137</v>
@@ -2281,10 +2403,10 @@
         <v>142</v>
       </c>
       <c r="D30" s="2">
-        <v>6107.0</v>
+        <v>6107</v>
       </c>
       <c r="E30" s="2">
-        <v>6107.0</v>
+        <v>6107</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>143</v>
@@ -2293,7 +2415,7 @@
         <v>144</v>
       </c>
       <c r="H30" s="2">
-        <v>-76.96354790000001</v>
+        <v>-76.963547900000009</v>
       </c>
       <c r="I30" s="2">
         <v>-12.1358082</v>
@@ -2308,21 +2430,24 @@
         <v>137</v>
       </c>
       <c r="M30" s="2">
-        <v>5836.0</v>
+        <v>5836</v>
       </c>
       <c r="N30" s="2">
-        <v>377.0</v>
-      </c>
-      <c r="O30" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O30" s="2">
+        <v>377</v>
+      </c>
+      <c r="P30" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>137</v>
@@ -2331,10 +2456,10 @@
         <v>146</v>
       </c>
       <c r="D31" s="2">
-        <v>6141.0</v>
+        <v>6141</v>
       </c>
       <c r="E31" s="2">
-        <v>6141.0</v>
+        <v>6141</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>147</v>
@@ -2343,7 +2468,7 @@
         <v>148</v>
       </c>
       <c r="H31" s="2">
-        <v>-76.9072151</v>
+        <v>-76.907215100000002</v>
       </c>
       <c r="I31" s="2">
         <v>-12.2105625</v>
@@ -2358,21 +2483,24 @@
         <v>137</v>
       </c>
       <c r="M31" s="2">
-        <v>5836.0</v>
+        <v>5836</v>
       </c>
       <c r="N31" s="2">
-        <v>377.0</v>
-      </c>
-      <c r="O31" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O31" s="2">
+        <v>377</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="P31" s="2" t="s">
+      <c r="Q31" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>137</v>
@@ -2381,10 +2509,10 @@
         <v>151</v>
       </c>
       <c r="D32" s="2">
-        <v>5628.0</v>
+        <v>5628</v>
       </c>
       <c r="E32" s="2">
-        <v>5628.0</v>
+        <v>5628</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>152</v>
@@ -2393,7 +2521,7 @@
         <v>153</v>
       </c>
       <c r="H32" s="2">
-        <v>-76.9843804</v>
+        <v>-76.984380400000006</v>
       </c>
       <c r="I32" s="2">
         <v>-11.9450035</v>
@@ -2408,21 +2536,24 @@
         <v>137</v>
       </c>
       <c r="M32" s="2">
-        <v>5836.0</v>
+        <v>5836</v>
       </c>
       <c r="N32" s="2">
-        <v>377.0</v>
-      </c>
-      <c r="O32" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O32" s="2">
+        <v>377</v>
+      </c>
+      <c r="P32" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="P32" s="2" t="s">
+      <c r="Q32" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>137</v>
@@ -2431,10 +2562,10 @@
         <v>156</v>
       </c>
       <c r="D33" s="2">
-        <v>5845.0</v>
+        <v>5845</v>
       </c>
       <c r="E33" s="2">
-        <v>5845.0</v>
+        <v>5845</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>157</v>
@@ -2443,10 +2574,10 @@
         <v>158</v>
       </c>
       <c r="H33" s="2">
-        <v>-76.97693100000001</v>
+        <v>-76.976931000000008</v>
       </c>
       <c r="I33" s="2">
-        <v>-12.0232824</v>
+        <v>-12.023282399999999</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>131</v>
@@ -2458,21 +2589,24 @@
         <v>137</v>
       </c>
       <c r="M33" s="2">
-        <v>5836.0</v>
+        <v>5836</v>
       </c>
       <c r="N33" s="2">
-        <v>377.0</v>
-      </c>
-      <c r="O33" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O33" s="2">
+        <v>377</v>
+      </c>
+      <c r="P33" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="Q33" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>137</v>
@@ -2481,10 +2615,10 @@
         <v>160</v>
       </c>
       <c r="D34" s="2">
-        <v>6164.0</v>
+        <v>6164</v>
       </c>
       <c r="E34" s="2">
-        <v>6164.0</v>
+        <v>6164</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>161</v>
@@ -2493,7 +2627,7 @@
         <v>162</v>
       </c>
       <c r="H34" s="2">
-        <v>-76.92745190000001</v>
+        <v>-76.927451900000008</v>
       </c>
       <c r="I34" s="2">
         <v>-12.1910331</v>
@@ -2508,21 +2642,24 @@
         <v>137</v>
       </c>
       <c r="M34" s="2">
-        <v>5836.0</v>
+        <v>5836</v>
       </c>
       <c r="N34" s="2">
-        <v>377.0</v>
-      </c>
-      <c r="O34" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O34" s="2">
+        <v>377</v>
+      </c>
+      <c r="P34" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="Q34" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>137</v>
@@ -2531,10 +2668,10 @@
         <v>164</v>
       </c>
       <c r="D35" s="2">
-        <v>5978.0</v>
+        <v>5978</v>
       </c>
       <c r="E35" s="2">
-        <v>5978.0</v>
+        <v>5978</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>165</v>
@@ -2543,7 +2680,7 @@
         <v>166</v>
       </c>
       <c r="H35" s="2">
-        <v>-76.8182673</v>
+        <v>-76.818267300000002</v>
       </c>
       <c r="I35" s="2">
         <v>-12.1110471</v>
@@ -2558,21 +2695,24 @@
         <v>137</v>
       </c>
       <c r="M35" s="2">
-        <v>5836.0</v>
+        <v>5836</v>
       </c>
       <c r="N35" s="2">
-        <v>377.0</v>
-      </c>
-      <c r="O35" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O35" s="2">
+        <v>377</v>
+      </c>
+      <c r="P35" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="Q35" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>137</v>
@@ -2581,10 +2721,10 @@
         <v>169</v>
       </c>
       <c r="D36" s="2">
-        <v>6081.0</v>
+        <v>6081</v>
       </c>
       <c r="E36" s="2">
-        <v>6081.0</v>
+        <v>6081</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>170</v>
@@ -2593,10 +2733,10 @@
         <v>171</v>
       </c>
       <c r="H36" s="2">
-        <v>-76.85443120000001</v>
+        <v>-76.854431200000008</v>
       </c>
       <c r="I36" s="2">
-        <v>-12.2954167</v>
+        <v>-12.295416700000001</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>51</v>
@@ -2608,21 +2748,24 @@
         <v>137</v>
       </c>
       <c r="M36" s="2">
-        <v>5836.0</v>
+        <v>5836</v>
       </c>
       <c r="N36" s="2">
-        <v>377.0</v>
-      </c>
-      <c r="O36" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O36" s="2">
+        <v>377</v>
+      </c>
+      <c r="P36" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="Q36" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>137</v>
@@ -2631,10 +2774,10 @@
         <v>174</v>
       </c>
       <c r="D37" s="2">
-        <v>5935.0</v>
+        <v>5935</v>
       </c>
       <c r="E37" s="2">
-        <v>5935.0</v>
+        <v>5935</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>175</v>
@@ -2643,10 +2786,10 @@
         <v>176</v>
       </c>
       <c r="H37" s="2">
-        <v>-76.76043017</v>
+        <v>-76.760430170000006</v>
       </c>
       <c r="I37" s="2">
-        <v>-11.97466304</v>
+        <v>-11.974663039999999</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>51</v>
@@ -2658,21 +2801,24 @@
         <v>137</v>
       </c>
       <c r="M37" s="2">
-        <v>5836.0</v>
+        <v>5836</v>
       </c>
       <c r="N37" s="2">
-        <v>377.0</v>
-      </c>
-      <c r="O37" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O37" s="2">
+        <v>377</v>
+      </c>
+      <c r="P37" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="Q37" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>137</v>
@@ -2681,10 +2827,10 @@
         <v>178</v>
       </c>
       <c r="D38" s="2">
-        <v>6132.0</v>
+        <v>6132</v>
       </c>
       <c r="E38" s="2">
-        <v>6132.0</v>
+        <v>6132</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>179</v>
@@ -2693,7 +2839,7 @@
         <v>180</v>
       </c>
       <c r="H38" s="2">
-        <v>-76.9463104</v>
+        <v>-76.946310400000002</v>
       </c>
       <c r="I38" s="2">
         <v>-12.1982974</v>
@@ -2708,21 +2854,24 @@
         <v>137</v>
       </c>
       <c r="M38" s="2">
-        <v>5836.0</v>
+        <v>5836</v>
       </c>
       <c r="N38" s="2">
-        <v>377.0</v>
-      </c>
-      <c r="O38" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O38" s="2">
+        <v>377</v>
+      </c>
+      <c r="P38" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="Q38" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>137</v>
@@ -2731,10 +2880,10 @@
         <v>183</v>
       </c>
       <c r="D39" s="2">
-        <v>6133.0</v>
+        <v>6133</v>
       </c>
       <c r="E39" s="2">
-        <v>6133.0</v>
+        <v>6133</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>184</v>
@@ -2743,10 +2892,10 @@
         <v>185</v>
       </c>
       <c r="H39" s="2">
-        <v>-76.9452898</v>
+        <v>-76.945289799999998</v>
       </c>
       <c r="I39" s="2">
-        <v>-12.2191614</v>
+        <v>-12.219161400000001</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>19</v>
@@ -2758,983 +2907,984 @@
         <v>137</v>
       </c>
       <c r="M39" s="2">
-        <v>5836.0</v>
+        <v>5836</v>
       </c>
       <c r="N39" s="2">
-        <v>377.0</v>
-      </c>
-      <c r="O39" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="O39" s="2">
+        <v>377</v>
+      </c>
+      <c r="P39" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="P39" s="2" t="s">
+      <c r="Q39" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>